--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="12615"/>
+    <workbookView windowWidth="20685" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>required</t>
   </si>
@@ -42,6 +42,12 @@
   <si>
     <t>暂未开放</t>
   </si>
+  <si>
+    <t>不能给自己转账</t>
+  </si>
+  <si>
+    <t>账户不存在或对方设置了隐私保护</t>
+  </si>
 </sst>
 </file>
 
@@ -80,37 +86,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -156,6 +131,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -205,6 +188,13 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -216,26 +206,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -243,16 +213,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -262,48 +249,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -323,139 +329,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,15 +600,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color indexed="49"/>
       </bottom>
@@ -623,6 +620,30 @@
       <top/>
       <bottom style="thick">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,15 +665,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -677,17 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,229 +703,229 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -931,34 +937,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,9 +1016,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1363,13 +1369,13 @@
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="17.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:68">
@@ -1482,12 +1488,20 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" ht="14.25" spans="2:3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0963650-6D5A-4C6A-AF9D-46C2A2558561}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="12015"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -17,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>uint32</t>
   </si>
   <si>
     <t>string</t>
@@ -48,18 +51,16 @@
   <si>
     <t>账户不存在或对方设置了隐私保护</t>
   </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,123 +87,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -212,36 +107,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -313,8 +178,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,18 +200,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,18 +212,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,18 +248,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,24 +260,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -461,12 +278,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,101 +295,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,15 +324,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,237 +411,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -937,172 +506,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 6 2" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="40% - 着色 3 2" xfId="24"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="40% - 着色 2 2" xfId="30"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="40% - 着色 5 2" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="适中" xfId="40" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
-    <cellStyle name="输出 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
-    <cellStyle name="60% - 着色 6 2" xfId="56"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
-    <cellStyle name="着色 5 2" xfId="59"/>
-    <cellStyle name="20% - 着色 3 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 着色 4 2" xfId="62"/>
-    <cellStyle name="着色 1 2" xfId="63"/>
-    <cellStyle name="20% - 着色 5 2" xfId="64"/>
-    <cellStyle name="40% - 着色 1 2" xfId="65"/>
-    <cellStyle name="40% - 着色 6 2" xfId="66"/>
-    <cellStyle name="60% - 着色 1 2" xfId="67"/>
-    <cellStyle name="60% - 着色 2 2" xfId="68"/>
-    <cellStyle name="60% - 着色 3 2" xfId="69"/>
-    <cellStyle name="60% - 着色 4 2" xfId="70"/>
-    <cellStyle name="60% - 着色 5 2" xfId="71"/>
-    <cellStyle name="标题 1 2" xfId="72"/>
-    <cellStyle name="标题 2 2" xfId="73"/>
-    <cellStyle name="标题 3 2" xfId="74"/>
-    <cellStyle name="标题 4 2" xfId="75"/>
-    <cellStyle name="标题 5" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="常规 2" xfId="78"/>
-    <cellStyle name="常规 3" xfId="79"/>
-    <cellStyle name="好 2" xfId="80"/>
-    <cellStyle name="汇总 2" xfId="81"/>
-    <cellStyle name="检查单元格 2" xfId="82"/>
-    <cellStyle name="警告文本 2" xfId="83"/>
-    <cellStyle name="链接单元格 2" xfId="84"/>
-    <cellStyle name="输入 2" xfId="85"/>
-    <cellStyle name="着色 3 2" xfId="86"/>
-    <cellStyle name="着色 4 2" xfId="87"/>
-    <cellStyle name="着色 6 2" xfId="88"/>
-    <cellStyle name="注释 2" xfId="89"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1360,25 +885,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:68">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1452,60 +977,60 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="2:3">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:3">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:3">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:3">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0963650-6D5A-4C6A-AF9D-46C2A2558561}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20685" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>string</t>
@@ -52,15 +49,20 @@
     <t>账户不存在或对方设置了隐私保护</t>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>您的输入不合法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +90,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -96,6 +125,195 @@
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -106,86 +324,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="19">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,49 +340,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,19 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,13 +568,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -319,10 +645,96 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -330,9 +742,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -361,43 +775,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="63"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,94 +816,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -506,128 +1074,178 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+  <cellStyles count="90">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="20% - 着色 6 2" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="40% - 着色 3 2" xfId="24"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="40% - 着色 2 2" xfId="30"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="33"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="40% - 着色 5 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="好" xfId="39" builtinId="26"/>
+    <cellStyle name="适中" xfId="40" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 着色 2 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="60% - 着色 6 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
+    <cellStyle name="着色 5 2" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="20% - 着色 3 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 着色 4 2" xfId="62"/>
+    <cellStyle name="着色 1 2" xfId="63"/>
+    <cellStyle name="20% - 着色 5 2" xfId="64"/>
+    <cellStyle name="40% - 着色 1 2" xfId="65"/>
+    <cellStyle name="40% - 着色 6 2" xfId="66"/>
+    <cellStyle name="60% - 着色 1 2" xfId="67"/>
+    <cellStyle name="60% - 着色 2 2" xfId="68"/>
+    <cellStyle name="60% - 着色 3 2" xfId="69"/>
+    <cellStyle name="60% - 着色 4 2" xfId="70"/>
+    <cellStyle name="60% - 着色 5 2" xfId="71"/>
+    <cellStyle name="标题 1 2" xfId="72"/>
+    <cellStyle name="标题 2 2" xfId="73"/>
+    <cellStyle name="标题 3 2" xfId="74"/>
+    <cellStyle name="标题 4 2" xfId="75"/>
+    <cellStyle name="标题 5" xfId="76"/>
+    <cellStyle name="差 2" xfId="77"/>
+    <cellStyle name="常规 2" xfId="78"/>
+    <cellStyle name="常规 3" xfId="79"/>
+    <cellStyle name="好 2" xfId="80"/>
+    <cellStyle name="汇总 2" xfId="81"/>
+    <cellStyle name="检查单元格 2" xfId="82"/>
+    <cellStyle name="警告文本 2" xfId="83"/>
+    <cellStyle name="链接单元格 2" xfId="84"/>
+    <cellStyle name="输入 2" xfId="85"/>
+    <cellStyle name="着色 3 2" xfId="86"/>
+    <cellStyle name="着色 4 2" xfId="87"/>
+    <cellStyle name="着色 6 2" xfId="88"/>
+    <cellStyle name="注释 2" xfId="89"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -885,25 +1503,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:68">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -918,17 +1536,17 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -964,9 +1582,9 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -977,60 +1595,68 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="75" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="2:3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="2:3">
       <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AAD648-FFF8-46B5-BF46-D81A6AB04DDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="12015"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>required</t>
   </si>
@@ -53,14 +59,26 @@
   </si>
   <si>
     <t>未设置昵称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额不足</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
       <alignment vertical="center"/>
@@ -577,12 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -603,54 +615,57 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11"/>
-    <cellStyle name="好 2" xfId="32"/>
-    <cellStyle name="注释 2" xfId="41"/>
-    <cellStyle name="差 2" xfId="29"/>
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30"/>
-    <cellStyle name="常规 3" xfId="31"/>
-    <cellStyle name="着色 1 2" xfId="15"/>
-    <cellStyle name="着色 2 2" xfId="1"/>
-    <cellStyle name="着色 3 2" xfId="38"/>
-    <cellStyle name="着色 4 2" xfId="39"/>
-    <cellStyle name="着色 5 2" xfId="12"/>
-    <cellStyle name="着色 6 2" xfId="40"/>
-    <cellStyle name="输入 2" xfId="37"/>
-    <cellStyle name="输出 2" xfId="10"/>
-    <cellStyle name="警告文本 2" xfId="35"/>
-    <cellStyle name="标题 1 2" xfId="24"/>
-    <cellStyle name="标题 2 2" xfId="25"/>
-    <cellStyle name="标题 3 2" xfId="26"/>
-    <cellStyle name="标题 4 2" xfId="27"/>
-    <cellStyle name="标题 5" xfId="28"/>
-    <cellStyle name="检查单元格 2" xfId="34"/>
-    <cellStyle name="汇总 2" xfId="33"/>
-    <cellStyle name="计算 2" xfId="4"/>
-    <cellStyle name="链接单元格 2" xfId="36"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -913,20 +928,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="14.25">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -941,17 +956,17 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -987,9 +1002,9 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -1000,7 +1015,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="14.25">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="14.25">
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="14.25">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1035,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="14.25">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="14.25">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1051,20 +1066,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
-      <c r="B8" s="8">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="14.25">
-      <c r="B9" s="8">
+    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AAD648-FFF8-46B5-BF46-D81A6AB04DDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20685" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>required</t>
   </si>
@@ -59,26 +53,31 @@
   </si>
   <si>
     <t>未设置昵称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>余额不足</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>账户余额</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>余额宝</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,104 +89,241 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -195,32 +331,16 @@
       <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,31 +355,235 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +595,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,61 +635,87 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -355,31 +735,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -387,10 +776,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="49"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,6 +808,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -436,103 +849,238 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -541,131 +1089,181 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+  <cellStyles count="90">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="20% - 着色 6 2" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="40% - 着色 3 2" xfId="24"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="40% - 着色 2 2" xfId="30"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="33"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="40% - 着色 5 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="好" xfId="39" builtinId="26"/>
+    <cellStyle name="适中" xfId="40" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 着色 2 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="60% - 着色 6 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
+    <cellStyle name="着色 5 2" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="20% - 着色 3 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 着色 4 2" xfId="62"/>
+    <cellStyle name="着色 1 2" xfId="63"/>
+    <cellStyle name="20% - 着色 5 2" xfId="64"/>
+    <cellStyle name="40% - 着色 1 2" xfId="65"/>
+    <cellStyle name="40% - 着色 6 2" xfId="66"/>
+    <cellStyle name="60% - 着色 1 2" xfId="67"/>
+    <cellStyle name="60% - 着色 2 2" xfId="68"/>
+    <cellStyle name="60% - 着色 3 2" xfId="69"/>
+    <cellStyle name="60% - 着色 4 2" xfId="70"/>
+    <cellStyle name="60% - 着色 5 2" xfId="71"/>
+    <cellStyle name="标题 1 2" xfId="72"/>
+    <cellStyle name="标题 2 2" xfId="73"/>
+    <cellStyle name="标题 3 2" xfId="74"/>
+    <cellStyle name="标题 4 2" xfId="75"/>
+    <cellStyle name="标题 5" xfId="76"/>
+    <cellStyle name="差 2" xfId="77"/>
+    <cellStyle name="常规 2" xfId="78"/>
+    <cellStyle name="常规 3" xfId="79"/>
+    <cellStyle name="好 2" xfId="80"/>
+    <cellStyle name="汇总 2" xfId="81"/>
+    <cellStyle name="检查单元格 2" xfId="82"/>
+    <cellStyle name="警告文本 2" xfId="83"/>
+    <cellStyle name="链接单元格 2" xfId="84"/>
+    <cellStyle name="输入 2" xfId="85"/>
+    <cellStyle name="着色 3 2" xfId="86"/>
+    <cellStyle name="着色 4 2" xfId="87"/>
+    <cellStyle name="着色 6 2" xfId="88"/>
+    <cellStyle name="注释 2" xfId="89"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -923,25 +1521,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:68">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -956,17 +1554,17 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1002,9 +1600,9 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -1015,7 +1613,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="75" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1050,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="2:3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1058,7 +1656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="2:3">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1066,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1074,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.25" spans="2:3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1082,33 +1680,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="2:3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="2:3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" spans="2:3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD08D25-762F-4419-907A-E295FF67F434}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="12015"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>required</t>
   </si>
@@ -65,19 +71,19 @@
   </si>
   <si>
     <t>剩余</t>
+  </si>
+  <si>
+    <t>兴东银行储蓄卡</t>
+  </si>
+  <si>
+    <t>该卡暂时不能开通快捷支付，请使用其他卡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,66 +108,6 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -203,90 +149,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -339,8 +201,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,60 +223,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,227 +289,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -730,56 +364,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,237 +434,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1089,181 +529,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 6 2" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="40% - 着色 3 2" xfId="24"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="40% - 着色 2 2" xfId="30"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="40% - 着色 5 2" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="适中" xfId="40" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 着色 6 2" xfId="55"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="着色 5 2" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
-    <cellStyle name="20% - 着色 3 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 着色 4 2" xfId="62"/>
-    <cellStyle name="着色 1 2" xfId="63"/>
-    <cellStyle name="20% - 着色 5 2" xfId="64"/>
-    <cellStyle name="40% - 着色 1 2" xfId="65"/>
-    <cellStyle name="40% - 着色 6 2" xfId="66"/>
-    <cellStyle name="60% - 着色 1 2" xfId="67"/>
-    <cellStyle name="60% - 着色 2 2" xfId="68"/>
-    <cellStyle name="60% - 着色 3 2" xfId="69"/>
-    <cellStyle name="60% - 着色 4 2" xfId="70"/>
-    <cellStyle name="60% - 着色 5 2" xfId="71"/>
-    <cellStyle name="标题 1 2" xfId="72"/>
-    <cellStyle name="标题 2 2" xfId="73"/>
-    <cellStyle name="标题 3 2" xfId="74"/>
-    <cellStyle name="标题 4 2" xfId="75"/>
-    <cellStyle name="标题 5" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="常规 2" xfId="78"/>
-    <cellStyle name="常规 3" xfId="79"/>
-    <cellStyle name="好 2" xfId="80"/>
-    <cellStyle name="汇总 2" xfId="81"/>
-    <cellStyle name="检查单元格 2" xfId="82"/>
-    <cellStyle name="警告文本 2" xfId="83"/>
-    <cellStyle name="链接单元格 2" xfId="84"/>
-    <cellStyle name="输入 2" xfId="85"/>
-    <cellStyle name="着色 3 2" xfId="86"/>
-    <cellStyle name="着色 4 2" xfId="87"/>
-    <cellStyle name="着色 6 2" xfId="88"/>
-    <cellStyle name="注释 2" xfId="89"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1521,25 +908,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BP13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:68">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1554,17 +941,17 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1600,9 +987,9 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -1613,7 +1000,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="2:3">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:3">
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:3">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:3">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1648,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:3">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1656,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:3">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1664,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1672,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:3">
+    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1680,41 +1067,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:3">
+    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:3">
+    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:3">
+    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="9">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD08D25-762F-4419-907A-E295FF67F434}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20685" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>required</t>
   </si>
@@ -77,13 +71,22 @@
   </si>
   <si>
     <t>该卡暂时不能开通快捷支付，请使用其他卡</t>
+  </si>
+  <si>
+    <t>储蓄卡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,191 @@
     <font>
       <sz val="12"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -118,7 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -136,79 +324,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="19">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,73 +364,277 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,26 +644,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -327,13 +654,130 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="49"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -353,17 +797,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -377,17 +824,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,117 +853,243 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -529,128 +1098,175 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+  <cellStyles count="90">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="20% - 着色 6 2" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="40% - 着色 3 2" xfId="24"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="40% - 着色 2 2" xfId="30"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="33"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="40% - 着色 5 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="好" xfId="39" builtinId="26"/>
+    <cellStyle name="适中" xfId="40" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 着色 2 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="60% - 着色 6 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
+    <cellStyle name="着色 5 2" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="20% - 着色 3 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 着色 4 2" xfId="62"/>
+    <cellStyle name="着色 1 2" xfId="63"/>
+    <cellStyle name="20% - 着色 5 2" xfId="64"/>
+    <cellStyle name="40% - 着色 1 2" xfId="65"/>
+    <cellStyle name="40% - 着色 6 2" xfId="66"/>
+    <cellStyle name="60% - 着色 1 2" xfId="67"/>
+    <cellStyle name="60% - 着色 2 2" xfId="68"/>
+    <cellStyle name="60% - 着色 3 2" xfId="69"/>
+    <cellStyle name="60% - 着色 4 2" xfId="70"/>
+    <cellStyle name="60% - 着色 5 2" xfId="71"/>
+    <cellStyle name="标题 1 2" xfId="72"/>
+    <cellStyle name="标题 2 2" xfId="73"/>
+    <cellStyle name="标题 3 2" xfId="74"/>
+    <cellStyle name="标题 4 2" xfId="75"/>
+    <cellStyle name="标题 5" xfId="76"/>
+    <cellStyle name="差 2" xfId="77"/>
+    <cellStyle name="常规 2" xfId="78"/>
+    <cellStyle name="常规 3" xfId="79"/>
+    <cellStyle name="好 2" xfId="80"/>
+    <cellStyle name="汇总 2" xfId="81"/>
+    <cellStyle name="检查单元格 2" xfId="82"/>
+    <cellStyle name="警告文本 2" xfId="83"/>
+    <cellStyle name="链接单元格 2" xfId="84"/>
+    <cellStyle name="输入 2" xfId="85"/>
+    <cellStyle name="着色 3 2" xfId="86"/>
+    <cellStyle name="着色 4 2" xfId="87"/>
+    <cellStyle name="着色 6 2" xfId="88"/>
+    <cellStyle name="注释 2" xfId="89"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -908,25 +1524,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:68">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -941,17 +1557,17 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -987,9 +1603,9 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -1000,7 +1616,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="75" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1035,7 +1651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="2:3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1043,15 +1659,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="2:9">
       <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1059,7 +1676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.25" spans="2:3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1067,7 +1684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="2:3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1075,7 +1692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="2:3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1083,7 +1700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" spans="2:3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1091,7 +1708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1099,7 +1716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1107,7 +1724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1115,9 +1732,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>required</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>储蓄卡</t>
+  </si>
+  <si>
+    <t>已添加该卡，不能重复添加</t>
   </si>
 </sst>
 </file>
@@ -83,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -113,12 +116,63 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -131,9 +185,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,7 +216,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,39 +259,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -210,69 +273,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -284,6 +286,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -291,6 +306,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -298,19 +319,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
@@ -331,23 +339,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -364,115 +367,247 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,163 +619,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,15 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -713,6 +707,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,67 +761,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,7 +782,31 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -850,11 +847,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,232 +867,232 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1098,34 +1101,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,9 +1183,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1218,8 +1221,8 @@
     <cellStyle name="20% - 着色 2 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
@@ -1227,11 +1230,11 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 着色 6 2" xfId="55"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
+    <cellStyle name="60% - 着色 6 2" xfId="56"/>
     <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="着色 5 2" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
+    <cellStyle name="着色 5 2" xfId="59"/>
     <cellStyle name="20% - 着色 3 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="20% - 着色 4 2" xfId="62"/>
@@ -1530,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1666,7 +1669,7 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="7">
@@ -1733,11 +1736,19 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="12015"/>
+    <workbookView windowWidth="20745" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>required</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>已添加该卡，不能重复添加</t>
+  </si>
+  <si>
+    <t>支付密码不正确</t>
   </si>
 </sst>
 </file>
@@ -86,8 +89,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -123,16 +126,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,39 +143,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -185,7 +159,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +167,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,21 +190,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +237,103 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -266,91 +343,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -373,79 +376,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,103 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,73 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +657,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,21 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -727,6 +730,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,66 +769,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,25 +813,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,211 +891,211 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1101,38 +1104,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
       <alignment vertical="center"/>
@@ -1154,9 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1533,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1560,17 +1560,17 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1606,9 +1606,9 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -1744,11 +1744,19 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEFB656-FF7B-4B5B-83DA-F3BF6BD617CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="12015"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>required</t>
   </si>
@@ -80,19 +86,17 @@
   </si>
   <si>
     <t>支付密码不正确</t>
+  </si>
+  <si>
+    <t>选择头像</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,160 +124,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -354,8 +214,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,240 +236,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -651,110 +331,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -865,411 +447,223 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 6 2" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="40% - 着色 3 2" xfId="24"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="40% - 着色 2 2" xfId="30"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="40% - 着色 5 2" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="适中" xfId="40" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
-    <cellStyle name="输出 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
-    <cellStyle name="60% - 着色 6 2" xfId="56"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
-    <cellStyle name="着色 5 2" xfId="59"/>
-    <cellStyle name="20% - 着色 3 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 着色 4 2" xfId="62"/>
-    <cellStyle name="着色 1 2" xfId="63"/>
-    <cellStyle name="20% - 着色 5 2" xfId="64"/>
-    <cellStyle name="40% - 着色 1 2" xfId="65"/>
-    <cellStyle name="40% - 着色 6 2" xfId="66"/>
-    <cellStyle name="60% - 着色 1 2" xfId="67"/>
-    <cellStyle name="60% - 着色 2 2" xfId="68"/>
-    <cellStyle name="60% - 着色 3 2" xfId="69"/>
-    <cellStyle name="60% - 着色 4 2" xfId="70"/>
-    <cellStyle name="60% - 着色 5 2" xfId="71"/>
-    <cellStyle name="标题 1 2" xfId="72"/>
-    <cellStyle name="标题 2 2" xfId="73"/>
-    <cellStyle name="标题 3 2" xfId="74"/>
-    <cellStyle name="标题 4 2" xfId="75"/>
-    <cellStyle name="标题 5" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="常规 2" xfId="78"/>
-    <cellStyle name="常规 3" xfId="79"/>
-    <cellStyle name="好 2" xfId="80"/>
-    <cellStyle name="汇总 2" xfId="81"/>
-    <cellStyle name="检查单元格 2" xfId="82"/>
-    <cellStyle name="警告文本 2" xfId="83"/>
-    <cellStyle name="链接单元格 2" xfId="84"/>
-    <cellStyle name="输入 2" xfId="85"/>
-    <cellStyle name="着色 3 2" xfId="86"/>
-    <cellStyle name="着色 4 2" xfId="87"/>
-    <cellStyle name="着色 6 2" xfId="88"/>
-    <cellStyle name="注释 2" xfId="89"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="计算 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1527,25 +921,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BP18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:68">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1619,7 +1013,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="2:3">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:3">
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:3">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:3">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1654,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:3">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1662,7 +1056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:9">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1671,7 +1065,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1679,7 +1073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:3">
+    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1687,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:3">
+    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1695,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:3">
+    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1703,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:3">
+    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1711,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1719,7 +1113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1727,7 +1121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1735,7 +1129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1743,7 +1137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1751,7 +1145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1759,9 +1153,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEFB656-FF7B-4B5B-83DA-F3BF6BD617CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F3B4B-1FB5-4C1D-B98F-1810CA2716DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>required</t>
   </si>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>选择头像</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未设置昵称</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -927,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1165,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F3B4B-1FB5-4C1D-B98F-1810CA2716DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA451B8-B82B-4A60-8424-8DF6BDCE66B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>required</t>
   </si>
@@ -93,6 +93,19 @@
   </si>
   <si>
     <t>未设置昵称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码不能与以前密码相同</t>
+  </si>
+  <si>
+    <t>修改支付密码成功</t>
+  </si>
+  <si>
+    <t>两次输入密码不一致</t>
+  </si>
+  <si>
+    <t>支付密码不能是重复、连续的数字</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -931,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1173,6 +1186,38 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA451B8-B82B-4A60-8424-8DF6BDCE66B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5699AD-1353-44F7-B845-8A26A3FAC3BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>required</t>
   </si>
@@ -107,6 +107,12 @@
   <si>
     <t>支付密码不能是重复、连续的数字</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置支付密码</t>
+  </si>
+  <si>
+    <t>修改支付密码</t>
   </si>
 </sst>
 </file>
@@ -944,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1218,6 +1224,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5699AD-1353-44F7-B845-8A26A3FAC3BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F3B4B-1FB5-4C1D-B98F-1810CA2716DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>required</t>
   </si>
@@ -94,25 +94,6 @@
   <si>
     <t>未设置昵称</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新密码不能与以前密码相同</t>
-  </si>
-  <si>
-    <t>修改支付密码成功</t>
-  </si>
-  <si>
-    <t>两次输入密码不一致</t>
-  </si>
-  <si>
-    <t>支付密码不能是重复、连续的数字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置支付密码</t>
-  </si>
-  <si>
-    <t>修改支付密码</t>
   </si>
 </sst>
 </file>
@@ -950,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1192,54 +1173,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>18</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>22</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F3B4B-1FB5-4C1D-B98F-1810CA2716DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5699AD-1353-44F7-B845-8A26A3FAC3BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>required</t>
   </si>
@@ -94,6 +94,25 @@
   <si>
     <t>未设置昵称</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码不能与以前密码相同</t>
+  </si>
+  <si>
+    <t>修改支付密码成功</t>
+  </si>
+  <si>
+    <t>两次输入密码不一致</t>
+  </si>
+  <si>
+    <t>支付密码不能是重复、连续的数字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置支付密码</t>
+  </si>
+  <si>
+    <t>修改支付密码</t>
   </si>
 </sst>
 </file>
@@ -931,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1173,6 +1192,54 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5699AD-1353-44F7-B845-8A26A3FAC3BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D1A61C-AABA-40B2-A571-413E47C168CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>required</t>
   </si>
@@ -113,6 +113,13 @@
   </si>
   <si>
     <t>修改支付密码</t>
+  </si>
+  <si>
+    <t>总金额{0}元</t>
+  </si>
+  <si>
+    <t>客官别急</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -950,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1240,6 +1247,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D1A61C-AABA-40B2-A571-413E47C168CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCCADAE-4A4B-4D0F-8687-361D7894B4E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,11 @@
     <t>修改支付密码</t>
   </si>
   <si>
-    <t>总金额{0}元</t>
-  </si>
-  <si>
     <t>客官别急</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额 {0}元</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +961,7 @@
   <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -1260,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCCADAE-4A4B-4D0F-8687-361D7894B4E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D2CB6-7C18-4F2A-80EB-D40A80B551C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>required</t>
   </si>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>总金额 {0}元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加银行卡成功</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -958,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1264,6 +1268,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D2CB6-7C18-4F2A-80EB-D40A80B551C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB4FB89-1A9D-4948-B7CF-031D2E7689D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>required</t>
   </si>
@@ -125,6 +125,12 @@
   <si>
     <t>添加银行卡成功</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多可转入{0}元</t>
+  </si>
+  <si>
+    <t>该卡本次最多可转入{0}元</t>
   </si>
 </sst>
 </file>
@@ -962,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1276,6 +1282,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB4FB89-1A9D-4948-B7CF-031D2E7689D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20745" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>required</t>
   </si>
@@ -89,11 +83,6 @@
   </si>
   <si>
     <t>选择头像</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未设置昵称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>新密码不能与以前密码相同</t>
@@ -106,7 +95,6 @@
   </si>
   <si>
     <t>支付密码不能是重复、连续的数字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>设置支付密码</t>
@@ -115,29 +103,38 @@
     <t>修改支付密码</t>
   </si>
   <si>
+    <t>总金额 {0}元</t>
+  </si>
+  <si>
     <t>客官别急</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>总金额 {0}元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>添加银行卡成功</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最多可转入{0}元</t>
   </si>
   <si>
     <t>该卡本次最多可转入{0}元</t>
+  </si>
+  <si>
+    <t>金额不足</t>
+  </si>
+  <si>
+    <t>该付款方式不支持当前交易</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +168,36 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -179,33 +206,127 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -217,12 +338,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -250,19 +365,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,49 +412,271 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,53 +688,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,28 +756,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="49"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,15 +841,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,108 +872,272 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color indexed="22"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color indexed="22"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -583,128 +1146,175 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+  <cellStyles count="90">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="计算 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="20% - 着色 6 2" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="40% - 着色 3 2" xfId="24"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="40% - 着色 2 2" xfId="30"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="33"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="40% - 着色 5 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="好" xfId="39" builtinId="26"/>
+    <cellStyle name="适中" xfId="40" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 着色 2 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="60% - 着色 6 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
+    <cellStyle name="着色 5 2" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="20% - 着色 3 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 着色 4 2" xfId="62"/>
+    <cellStyle name="着色 1 2" xfId="63"/>
+    <cellStyle name="20% - 着色 5 2" xfId="64"/>
+    <cellStyle name="40% - 着色 1 2" xfId="65"/>
+    <cellStyle name="40% - 着色 6 2" xfId="66"/>
+    <cellStyle name="60% - 着色 1 2" xfId="67"/>
+    <cellStyle name="60% - 着色 2 2" xfId="68"/>
+    <cellStyle name="60% - 着色 3 2" xfId="69"/>
+    <cellStyle name="60% - 着色 4 2" xfId="70"/>
+    <cellStyle name="60% - 着色 5 2" xfId="71"/>
+    <cellStyle name="标题 1 2" xfId="72"/>
+    <cellStyle name="标题 2 2" xfId="73"/>
+    <cellStyle name="标题 3 2" xfId="74"/>
+    <cellStyle name="标题 4 2" xfId="75"/>
+    <cellStyle name="标题 5" xfId="76"/>
+    <cellStyle name="差 2" xfId="77"/>
+    <cellStyle name="常规 2" xfId="78"/>
+    <cellStyle name="常规 3" xfId="79"/>
+    <cellStyle name="好 2" xfId="80"/>
+    <cellStyle name="汇总 2" xfId="81"/>
+    <cellStyle name="检查单元格 2" xfId="82"/>
+    <cellStyle name="警告文本 2" xfId="83"/>
+    <cellStyle name="链接单元格 2" xfId="84"/>
+    <cellStyle name="输入 2" xfId="85"/>
+    <cellStyle name="着色 3 2" xfId="86"/>
+    <cellStyle name="着色 4 2" xfId="87"/>
+    <cellStyle name="着色 6 2" xfId="88"/>
+    <cellStyle name="注释 2" xfId="89"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -962,25 +1572,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:68">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -995,17 +1605,17 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1041,9 +1651,9 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -1054,7 +1664,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1062,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="75" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1089,7 +1699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="2:3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1097,7 +1707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="2:9">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1106,7 +1716,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1114,7 +1724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.25" spans="2:3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1122,7 +1732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="2:3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1130,7 +1740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="2:3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1138,7 +1748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" spans="2:3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1146,7 +1756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1154,7 +1764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1162,7 +1772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1170,7 +1780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1178,7 +1788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1186,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1194,7 +1804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1202,71 +1812,71 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1274,33 +1884,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="4">
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="8">
+        <v>28</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="8">
+        <v>29</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>required</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>该付款方式不支持当前交易</t>
+  </si>
+  <si>
+    <t>本次最多可转出{0}元</t>
   </si>
 </sst>
 </file>
@@ -129,8 +132,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -161,12 +164,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -175,6 +172,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -183,6 +187,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -190,6 +217,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -197,19 +261,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -220,20 +291,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +307,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,78 +321,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -338,6 +361,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -365,34 +394,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -412,25 +415,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,25 +583,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +649,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,169 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,37 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +715,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -722,51 +740,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,6 +764,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -802,6 +784,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,9 +820,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,6 +855,15 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,37 +895,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,268 +915,268 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1228,9 +1231,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1266,8 +1269,8 @@
     <cellStyle name="20% - 着色 2 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
@@ -1275,11 +1278,11 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 着色 6 2" xfId="55"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
+    <cellStyle name="60% - 着色 6 2" xfId="56"/>
     <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="着色 5 2" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
+    <cellStyle name="着色 5 2" xfId="59"/>
     <cellStyle name="20% - 着色 3 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="20% - 着色 4 2" xfId="62"/>
@@ -1578,10 +1581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1909,19 +1912,27 @@
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="8">
+      <c r="B32" s="4">
         <v>28</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="8">
+      <c r="B33" s="4">
         <v>29</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="8">
+        <v>30</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>required</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>本次最多可转出{0}元</t>
+  </si>
+  <si>
+    <t>可转出到卡{0}元</t>
   </si>
 </sst>
 </file>
@@ -164,6 +167,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,8 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +252,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -203,20 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -227,67 +312,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -299,30 +326,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -415,30 +418,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,126 +628,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -590,54 +641,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,6 +705,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,21 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,15 +777,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -799,21 +817,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,214 +918,214 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1149,7 +1152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1164,16 +1167,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1231,9 +1234,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1581,10 +1584,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1928,11 +1931,19 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="8">
+      <c r="B34" s="4">
         <v>30</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="8">
+        <v>31</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2DA47-9FF9-4CB6-9CAA-C1BA3158733A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="12015"/>
+    <workbookView xWindow="7668" yWindow="420" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>required</t>
   </si>
@@ -128,19 +134,28 @@
   </si>
   <si>
     <t>可转出到卡{0}元</t>
+  </si>
+  <si>
+    <t>超过单笔最大限额</t>
+  </si>
+  <si>
+    <t>请先设置支付密码</t>
+  </si>
+  <si>
+    <t>成功转出{0}元至支付宝账户余额</t>
+  </si>
+  <si>
+    <t>成功转出{0}元至{1}</t>
+  </si>
+  <si>
+    <t>成功转入{0}元</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,147 +182,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -317,13 +195,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -402,8 +273,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,240 +295,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -699,110 +390,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -913,294 +506,150 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1209,118 +658,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 6 2" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="40% - 着色 3 2" xfId="24"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="40% - 着色 2 2" xfId="30"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="40% - 着色 5 2" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="适中" xfId="40" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
-    <cellStyle name="输出 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
-    <cellStyle name="60% - 着色 6 2" xfId="56"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
-    <cellStyle name="着色 5 2" xfId="59"/>
-    <cellStyle name="20% - 着色 3 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 着色 4 2" xfId="62"/>
-    <cellStyle name="着色 1 2" xfId="63"/>
-    <cellStyle name="20% - 着色 5 2" xfId="64"/>
-    <cellStyle name="40% - 着色 1 2" xfId="65"/>
-    <cellStyle name="40% - 着色 6 2" xfId="66"/>
-    <cellStyle name="60% - 着色 1 2" xfId="67"/>
-    <cellStyle name="60% - 着色 2 2" xfId="68"/>
-    <cellStyle name="60% - 着色 3 2" xfId="69"/>
-    <cellStyle name="60% - 着色 4 2" xfId="70"/>
-    <cellStyle name="60% - 着色 5 2" xfId="71"/>
-    <cellStyle name="标题 1 2" xfId="72"/>
-    <cellStyle name="标题 2 2" xfId="73"/>
-    <cellStyle name="标题 3 2" xfId="74"/>
-    <cellStyle name="标题 4 2" xfId="75"/>
-    <cellStyle name="标题 5" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="常规 2" xfId="78"/>
-    <cellStyle name="常规 3" xfId="79"/>
-    <cellStyle name="好 2" xfId="80"/>
-    <cellStyle name="汇总 2" xfId="81"/>
-    <cellStyle name="检查单元格 2" xfId="82"/>
-    <cellStyle name="警告文本 2" xfId="83"/>
-    <cellStyle name="链接单元格 2" xfId="84"/>
-    <cellStyle name="输入 2" xfId="85"/>
-    <cellStyle name="着色 3 2" xfId="86"/>
-    <cellStyle name="着色 4 2" xfId="87"/>
-    <cellStyle name="着色 6 2" xfId="88"/>
-    <cellStyle name="注释 2" xfId="89"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1578,25 +983,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BP35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:68">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1670,7 +1075,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="2:3">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:3">
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:3">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:3">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1705,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:3">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1713,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:9">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1722,7 +1127,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1730,7 +1135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:3">
+    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1738,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:3">
+    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1746,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:3">
+    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1754,7 +1159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:3">
+    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1762,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1770,7 +1175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1778,7 +1183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1786,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1794,7 +1199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1802,7 +1207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1810,7 +1215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1818,7 +1223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1826,7 +1231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1834,7 +1239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1842,7 +1247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1850,7 +1255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1858,7 +1263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1866,7 +1271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -1874,7 +1279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -1882,7 +1287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1890,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -1898,7 +1303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -1906,7 +1311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -1914,7 +1319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -1922,7 +1327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -1930,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -1938,7 +1343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>31</v>
       </c>
@@ -1946,9 +1351,49 @@
         <v>37</v>
       </c>
     </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>32</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>33</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <v>34</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="8">
+        <v>35</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>36</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2DA47-9FF9-4CB6-9CAA-C1BA3158733A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46BE19-4DF6-401F-86F0-0A45CACED0C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="420" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8268" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>required</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>成功转入{0}元</t>
+  </si>
+  <si>
+    <t>该卡不支持转账</t>
+  </si>
+  <si>
+    <t>持卡人与卡号不符</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>¥</t>
+  </si>
+  <si>
+    <t>对方实收{0}元，服务费{1}元</t>
   </si>
 </sst>
 </file>
@@ -989,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1391,6 +1406,46 @@
         <v>42</v>
       </c>
     </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="8">
+        <v>37</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>38</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="8">
+        <v>39</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
+        <v>40</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>41</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46BE19-4DF6-401F-86F0-0A45CACED0C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE721C4-9323-4CE9-BB3D-9E3F0D179E39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8268" yWindow="1236" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>required</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>对方实收{0}元，服务费{1}元</t>
+  </si>
+  <si>
+    <t>转账</t>
+  </si>
+  <si>
+    <t>充值</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1446,6 +1452,22 @@
         <v>47</v>
       </c>
     </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
+        <v>42</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="8">
+        <v>43</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE721C4-9323-4CE9-BB3D-9E3F0D179E39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0F372-9CB5-4E8F-B490-364E855E6F02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>required</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>充值</t>
+  </si>
+  <si>
+    <t>当前没绑定银行卡,请先绑定银行卡</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1468,6 +1471,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <v>44</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0F372-9CB5-4E8F-B490-364E855E6F02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3555D-F86D-41E5-84F8-E49F21B6D242}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>required</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>当前没绑定银行卡,请先绑定银行卡</t>
+  </si>
+  <si>
+    <t>尾号{0}储蓄卡</t>
+  </si>
+  <si>
+    <t>可用余额{0}元</t>
+  </si>
+  <si>
+    <t>金额已超过可提现余额</t>
+  </si>
+  <si>
+    <t>服务费{0}元</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1479,6 +1491,38 @@
         <v>50</v>
       </c>
     </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="8">
+        <v>45</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
+        <v>46</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="8">
+        <v>47</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="8">
+        <v>48</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3555D-F86D-41E5-84F8-E49F21B6D242}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>required</t>
   </si>
@@ -185,13 +179,17 @@
   </si>
   <si>
     <t>服务费{0}元</t>
+  </si>
+  <si>
+    <t>尚未进行实名认证</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,24 +201,28 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -228,6 +230,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -235,6 +238,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -242,6 +246,7 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -249,18 +254,21 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -268,12 +276,14 @@
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -281,6 +291,7 @@
       <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -288,6 +299,7 @@
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -295,18 +307,21 @@
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -711,48 +726,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - 着色 1 2" xfId="7"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11"/>
+    <cellStyle name="好 2" xfId="32"/>
+    <cellStyle name="注释 2" xfId="41"/>
+    <cellStyle name="差 2" xfId="29"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2" xfId="30"/>
+    <cellStyle name="常规 3" xfId="31"/>
+    <cellStyle name="着色 1 2" xfId="15"/>
+    <cellStyle name="着色 2 2" xfId="1"/>
+    <cellStyle name="着色 3 2" xfId="38"/>
+    <cellStyle name="着色 4 2" xfId="39"/>
+    <cellStyle name="着色 5 2" xfId="12"/>
+    <cellStyle name="着色 6 2" xfId="40"/>
+    <cellStyle name="输入 2" xfId="37"/>
+    <cellStyle name="输出 2" xfId="10"/>
+    <cellStyle name="警告文本 2" xfId="35"/>
+    <cellStyle name="标题 1 2" xfId="24"/>
+    <cellStyle name="标题 2 2" xfId="25"/>
+    <cellStyle name="标题 3 2" xfId="26"/>
+    <cellStyle name="标题 4 2" xfId="27"/>
+    <cellStyle name="标题 5" xfId="28"/>
+    <cellStyle name="检查单元格 2" xfId="34"/>
+    <cellStyle name="汇总 2" xfId="33"/>
+    <cellStyle name="计算 2" xfId="4"/>
+    <cellStyle name="链接单元格 2" xfId="36"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1024,20 +1039,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1111,7 +1126,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="14.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="14.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" ht="14.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1146,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="14.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1154,7 +1169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" ht="14.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1163,7 +1178,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" ht="14.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1179,7 +1194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" ht="14.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" ht="14.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1195,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" ht="14.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1203,7 +1218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1219,7 +1234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1227,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1251,7 +1266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1259,7 +1274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1275,7 +1290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -1323,7 +1338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -1355,7 +1370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -1363,7 +1378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -1371,7 +1386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" s="8">
         <v>31</v>
       </c>
@@ -1387,7 +1402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -1395,7 +1410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" s="8">
         <v>34</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" s="8">
         <v>35</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" s="8">
         <v>38</v>
       </c>
@@ -1443,7 +1458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" s="8">
         <v>39</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -1467,7 +1482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -1475,7 +1490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" s="8">
         <v>43</v>
       </c>
@@ -1483,7 +1498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" s="8">
         <v>44</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="8">
         <v>47</v>
       </c>
@@ -1515,17 +1530,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="8">
         <v>48</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="8">
+        <v>49</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>required</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>尚未进行实名认证</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1040,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1546,6 +1550,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="8">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>required</t>
   </si>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>真实姓名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,6 +1562,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="8">
+        <v>51</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F84D6F-BC3B-4F3E-9AC4-1C4E60BE4DE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>required</t>
   </si>
@@ -190,14 +196,21 @@
   </si>
   <si>
     <t>我是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>收入</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,48 +747,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11"/>
-    <cellStyle name="好 2" xfId="32"/>
-    <cellStyle name="注释 2" xfId="41"/>
-    <cellStyle name="差 2" xfId="29"/>
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30"/>
-    <cellStyle name="常规 3" xfId="31"/>
-    <cellStyle name="着色 1 2" xfId="15"/>
-    <cellStyle name="着色 2 2" xfId="1"/>
-    <cellStyle name="着色 3 2" xfId="38"/>
-    <cellStyle name="着色 4 2" xfId="39"/>
-    <cellStyle name="着色 5 2" xfId="12"/>
-    <cellStyle name="着色 6 2" xfId="40"/>
-    <cellStyle name="输入 2" xfId="37"/>
-    <cellStyle name="输出 2" xfId="10"/>
-    <cellStyle name="警告文本 2" xfId="35"/>
-    <cellStyle name="标题 1 2" xfId="24"/>
-    <cellStyle name="标题 2 2" xfId="25"/>
-    <cellStyle name="标题 3 2" xfId="26"/>
-    <cellStyle name="标题 4 2" xfId="27"/>
-    <cellStyle name="标题 5" xfId="28"/>
-    <cellStyle name="检查单元格 2" xfId="34"/>
-    <cellStyle name="汇总 2" xfId="33"/>
-    <cellStyle name="计算 2" xfId="4"/>
-    <cellStyle name="链接单元格 2" xfId="36"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1047,20 +1060,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="14.25">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1134,7 +1147,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="14.25">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="14.25">
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="14.25">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="14.25">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="14.25">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1186,7 +1199,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="14.25">
+    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1202,7 +1215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="14.25">
+    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="14.25">
+    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1218,7 +1231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="14.25">
+    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1226,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1234,7 +1247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1242,7 +1255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1250,7 +1263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1258,7 +1271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1266,7 +1279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1274,7 +1287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1298,7 +1311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1314,7 +1327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1322,7 +1335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1330,7 +1343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -1338,7 +1351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -1346,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1354,7 +1367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -1362,7 +1375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -1370,7 +1383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -1378,7 +1391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -1402,7 +1415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>31</v>
       </c>
@@ -1410,7 +1423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>32</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>33</v>
       </c>
@@ -1426,7 +1439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>34</v>
       </c>
@@ -1434,7 +1447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>35</v>
       </c>
@@ -1442,7 +1455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>36</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>37</v>
       </c>
@@ -1458,7 +1471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>38</v>
       </c>
@@ -1466,7 +1479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>39</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>40</v>
       </c>
@@ -1482,7 +1495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>41</v>
       </c>
@@ -1490,7 +1503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <v>42</v>
       </c>
@@ -1498,7 +1511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>43</v>
       </c>
@@ -1506,7 +1519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <v>44</v>
       </c>
@@ -1514,7 +1527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>46</v>
       </c>
@@ -1530,7 +1543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>47</v>
       </c>
@@ -1538,7 +1551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>48</v>
       </c>
@@ -1546,7 +1559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <v>49</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <v>50</v>
       </c>
@@ -1562,12 +1575,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>51</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
+        <v>52</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="8">
+        <v>53</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F84D6F-BC3B-4F3E-9AC4-1C4E60BE4DE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE9F60-78B4-495D-8700-9245BCA85DC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>required</t>
   </si>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>收入</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1061,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1599,6 +1607,22 @@
         <v>59</v>
       </c>
     </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="8">
+        <v>54</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="8">
+        <v>55</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE9F60-78B4-495D-8700-9245BCA85DC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96EF4FA-2392-4EAC-8CB4-BD1E54E8CC5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>required</t>
   </si>
@@ -212,6 +212,9 @@
   <si>
     <t>昨天</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1623,6 +1626,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="8">
+        <v>56</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96EF4FA-2392-4EAC-8CB4-BD1E54E8CC5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20745" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>required</t>
   </si>
@@ -188,40 +182,55 @@
   </si>
   <si>
     <t>尚未进行实名认证</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>真实姓名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>支出</t>
   </si>
   <si>
     <t>收入</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>今天</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>昨天</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
+  </si>
+  <si>
+    <t>转账到银行卡-</t>
+  </si>
+  <si>
+    <t>余额充值</t>
+  </si>
+  <si>
+    <t>余额提现</t>
+  </si>
+  <si>
+    <t>余额宝-{0}-收益发放</t>
+  </si>
+  <si>
+    <t>理财</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,28 +242,156 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -262,7 +399,64 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -270,37 +464,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -308,14 +477,12 @@
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="52"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -323,47 +490,10 @@
       <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="19">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,19 +508,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,37 +676,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,35 +784,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,26 +919,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,11 +941,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="52"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +988,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,114 +997,243 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -684,55 +1242,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -741,74 +1299,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+  <cellStyles count="90">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="20% - 着色 6 2" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="40% - 着色 3 2" xfId="24"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="40% - 着色 2 2" xfId="30"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="33"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="40% - 着色 5 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="好" xfId="39" builtinId="26"/>
+    <cellStyle name="适中" xfId="40" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 着色 2 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="60% - 着色 6 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
+    <cellStyle name="着色 5 2" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="20% - 着色 3 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 着色 4 2" xfId="62"/>
+    <cellStyle name="着色 1 2" xfId="63"/>
+    <cellStyle name="20% - 着色 5 2" xfId="64"/>
+    <cellStyle name="40% - 着色 1 2" xfId="65"/>
+    <cellStyle name="40% - 着色 6 2" xfId="66"/>
+    <cellStyle name="60% - 着色 1 2" xfId="67"/>
+    <cellStyle name="60% - 着色 2 2" xfId="68"/>
+    <cellStyle name="60% - 着色 3 2" xfId="69"/>
+    <cellStyle name="60% - 着色 4 2" xfId="70"/>
+    <cellStyle name="60% - 着色 5 2" xfId="71"/>
+    <cellStyle name="标题 1 2" xfId="72"/>
+    <cellStyle name="标题 2 2" xfId="73"/>
+    <cellStyle name="标题 3 2" xfId="74"/>
+    <cellStyle name="标题 4 2" xfId="75"/>
+    <cellStyle name="标题 5" xfId="76"/>
+    <cellStyle name="差 2" xfId="77"/>
+    <cellStyle name="常规 2" xfId="78"/>
+    <cellStyle name="常规 3" xfId="79"/>
+    <cellStyle name="好 2" xfId="80"/>
+    <cellStyle name="汇总 2" xfId="81"/>
+    <cellStyle name="检查单元格 2" xfId="82"/>
+    <cellStyle name="警告文本 2" xfId="83"/>
+    <cellStyle name="链接单元格 2" xfId="84"/>
+    <cellStyle name="输入 2" xfId="85"/>
+    <cellStyle name="着色 3 2" xfId="86"/>
+    <cellStyle name="着色 4 2" xfId="87"/>
+    <cellStyle name="着色 6 2" xfId="88"/>
+    <cellStyle name="注释 2" xfId="89"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1066,25 +1668,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:68">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1158,7 +1760,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="75" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1193,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="2:3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1201,7 +1803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="2:9">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1210,7 +1812,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1218,7 +1820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.25" spans="2:3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1226,7 +1828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="2:3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1234,7 +1836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="2:3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1242,7 +1844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" spans="2:3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1250,7 +1852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1258,7 +1860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1266,7 +1868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1274,7 +1876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1282,7 +1884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1290,7 +1892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1298,7 +1900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1306,7 +1908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1314,7 +1916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1322,7 +1924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1330,7 +1932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1338,7 +1940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1346,7 +1948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1354,7 +1956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -1362,7 +1964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -1370,7 +1972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1378,7 +1980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -1386,7 +1988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -1394,7 +1996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -1402,7 +2004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -1410,7 +2012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -1418,7 +2020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -1426,217 +2028,257 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+    <row r="35" spans="2:3">
+      <c r="B35" s="4">
         <v>31</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+    <row r="36" spans="2:3">
+      <c r="B36" s="4">
         <v>32</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+    <row r="37" spans="2:3">
+      <c r="B37" s="4">
         <v>33</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+    <row r="38" spans="2:3">
+      <c r="B38" s="4">
         <v>34</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+    <row r="39" spans="2:3">
+      <c r="B39" s="4">
         <v>35</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
+    <row r="40" spans="2:3">
+      <c r="B40" s="4">
         <v>36</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+    <row r="41" spans="2:3">
+      <c r="B41" s="4">
         <v>37</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+    <row r="42" spans="2:3">
+      <c r="B42" s="4">
         <v>38</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+    <row r="43" spans="2:3">
+      <c r="B43" s="4">
         <v>39</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+    <row r="44" spans="2:3">
+      <c r="B44" s="4">
         <v>40</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
+    <row r="45" spans="2:3">
+      <c r="B45" s="4">
         <v>41</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+    <row r="46" spans="2:3">
+      <c r="B46" s="4">
         <v>42</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+    <row r="47" spans="2:3">
+      <c r="B47" s="4">
         <v>43</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
+    <row r="48" spans="2:3">
+      <c r="B48" s="4">
         <v>44</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+    <row r="49" spans="2:3">
+      <c r="B49" s="4">
         <v>45</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+    <row r="50" spans="2:3">
+      <c r="B50" s="4">
         <v>46</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+    <row r="51" spans="2:3">
+      <c r="B51" s="4">
         <v>47</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+    <row r="52" spans="2:3">
+      <c r="B52" s="4">
         <v>48</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
+    <row r="53" spans="2:3">
+      <c r="B53" s="4">
         <v>49</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
+    <row r="54" spans="2:3">
+      <c r="B54" s="4">
         <v>50</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+    <row r="55" spans="2:3">
+      <c r="B55" s="4">
         <v>51</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+    <row r="56" spans="2:3">
+      <c r="B56" s="4">
         <v>52</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
+    <row r="57" spans="2:3">
+      <c r="B57" s="4">
         <v>53</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+    <row r="58" spans="2:3">
+      <c r="B58" s="4">
         <v>54</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
+    <row r="59" spans="2:3">
+      <c r="B59" s="4">
         <v>55</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="8">
+    <row r="60" spans="2:3">
+      <c r="B60" s="4">
         <v>56</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="4" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="8">
+        <v>57</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="8">
+        <v>58</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="8">
+        <v>59</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="8">
+        <v>60</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="8">
+        <v>61</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E62EDFE-5137-49E4-A3B1-B1B34D8D16F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="12015"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>required</t>
   </si>
@@ -218,19 +224,38 @@
   </si>
   <si>
     <t>理财</t>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,105 +280,6 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -403,55 +329,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -492,8 +373,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,67 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,60 +413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,49 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,36 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -789,101 +490,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -958,15 +570,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -1003,294 +606,150 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1299,118 +758,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 6 2" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="40% - 着色 3 2" xfId="24"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="40% - 着色 2 2" xfId="30"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="40% - 着色 5 2" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="适中" xfId="40" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 着色 6 2" xfId="55"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="着色 5 2" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
-    <cellStyle name="20% - 着色 3 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 着色 4 2" xfId="62"/>
-    <cellStyle name="着色 1 2" xfId="63"/>
-    <cellStyle name="20% - 着色 5 2" xfId="64"/>
-    <cellStyle name="40% - 着色 1 2" xfId="65"/>
-    <cellStyle name="40% - 着色 6 2" xfId="66"/>
-    <cellStyle name="60% - 着色 1 2" xfId="67"/>
-    <cellStyle name="60% - 着色 2 2" xfId="68"/>
-    <cellStyle name="60% - 着色 3 2" xfId="69"/>
-    <cellStyle name="60% - 着色 4 2" xfId="70"/>
-    <cellStyle name="60% - 着色 5 2" xfId="71"/>
-    <cellStyle name="标题 1 2" xfId="72"/>
-    <cellStyle name="标题 2 2" xfId="73"/>
-    <cellStyle name="标题 3 2" xfId="74"/>
-    <cellStyle name="标题 4 2" xfId="75"/>
-    <cellStyle name="标题 5" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="常规 2" xfId="78"/>
-    <cellStyle name="常规 3" xfId="79"/>
-    <cellStyle name="好 2" xfId="80"/>
-    <cellStyle name="汇总 2" xfId="81"/>
-    <cellStyle name="检查单元格 2" xfId="82"/>
-    <cellStyle name="警告文本 2" xfId="83"/>
-    <cellStyle name="链接单元格 2" xfId="84"/>
-    <cellStyle name="输入 2" xfId="85"/>
-    <cellStyle name="着色 3 2" xfId="86"/>
-    <cellStyle name="着色 4 2" xfId="87"/>
-    <cellStyle name="着色 6 2" xfId="88"/>
-    <cellStyle name="注释 2" xfId="89"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1668,25 +1083,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BP65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:68">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1760,7 +1175,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="2:3">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:3">
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:3">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1787,7 +1202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:3">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1795,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:3">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1803,7 +1218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:9">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1812,7 +1227,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1820,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:3">
+    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1828,7 +1243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:3">
+    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1836,7 +1251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:3">
+    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1844,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:3">
+    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1852,7 +1267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1860,7 +1275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1868,7 +1283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1876,7 +1291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1884,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1892,7 +1307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1900,7 +1315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1908,7 +1323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1916,7 +1331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1924,7 +1339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1932,7 +1347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1940,7 +1355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1948,7 +1363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1956,7 +1371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -1964,7 +1379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -1972,7 +1387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1980,7 +1395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -1988,7 +1403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -1996,7 +1411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -2004,7 +1419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -2012,7 +1427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -2020,7 +1435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -2028,7 +1443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -2036,7 +1451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -2044,7 +1459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -2052,7 +1467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -2060,7 +1475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -2068,7 +1483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -2076,7 +1491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -2084,7 +1499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -2092,7 +1507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -2100,7 +1515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -2108,7 +1523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -2116,7 +1531,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -2124,7 +1539,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -2132,7 +1547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -2140,7 +1555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -2148,7 +1563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -2156,7 +1571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -2164,7 +1579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -2172,7 +1587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -2180,7 +1595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -2188,7 +1603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -2196,7 +1611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -2204,7 +1619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -2212,7 +1627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -2220,7 +1635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -2228,7 +1643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -2236,7 +1651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
         <v>57</v>
       </c>
@@ -2244,7 +1659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>58</v>
       </c>
@@ -2252,7 +1667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>59</v>
       </c>
@@ -2260,7 +1675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>60</v>
       </c>
@@ -2268,7 +1683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>61</v>
       </c>
@@ -2276,9 +1691,73 @@
         <v>67</v>
       </c>
     </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="8">
+        <v>62</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="8">
+        <v>63</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <v>64</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="8">
+        <v>65</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="8">
+        <v>66</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="8">
+        <v>67</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="8">
+        <v>68</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="8">
+        <v>69</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E62EDFE-5137-49E4-A3B1-B1B34D8D16F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7705E55-7DDC-4B15-8601-13F133EC7966}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>required</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>星期六</t>
+  </si>
+  <si>
+    <t>确认转出</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1755,6 +1758,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="8">
+        <v>70</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7705E55-7DDC-4B15-8601-13F133EC7966}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16785" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>required</t>
   </si>
@@ -227,7 +221,6 @@
   </si>
   <si>
     <t>下一步</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>星期日</t>
@@ -252,13 +245,28 @@
   </si>
   <si>
     <t>确认转出</t>
+  </si>
+  <si>
+    <t>单次转入</t>
+  </si>
+  <si>
+    <t>转出到余额</t>
+  </si>
+  <si>
+    <t>转出到银行卡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,50 +293,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -339,6 +400,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -347,6 +414,85 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -377,13 +523,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,102 +544,288 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -502,17 +834,117 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +960,15 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,28 +997,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color indexed="22"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,93 +1039,237 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -704,131 +1278,175 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+  <cellStyles count="90">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="20% - 着色 6 2" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="40% - 着色 3 2" xfId="24"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="40% - 着色 2 2" xfId="30"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="33"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="40% - 着色 5 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="好" xfId="39" builtinId="26"/>
+    <cellStyle name="适中" xfId="40" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 着色 2 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="60% - 着色 6 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
+    <cellStyle name="着色 5 2" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="20% - 着色 3 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 着色 4 2" xfId="62"/>
+    <cellStyle name="着色 1 2" xfId="63"/>
+    <cellStyle name="20% - 着色 5 2" xfId="64"/>
+    <cellStyle name="40% - 着色 1 2" xfId="65"/>
+    <cellStyle name="40% - 着色 6 2" xfId="66"/>
+    <cellStyle name="60% - 着色 1 2" xfId="67"/>
+    <cellStyle name="60% - 着色 2 2" xfId="68"/>
+    <cellStyle name="60% - 着色 3 2" xfId="69"/>
+    <cellStyle name="60% - 着色 4 2" xfId="70"/>
+    <cellStyle name="60% - 着色 5 2" xfId="71"/>
+    <cellStyle name="标题 1 2" xfId="72"/>
+    <cellStyle name="标题 2 2" xfId="73"/>
+    <cellStyle name="标题 3 2" xfId="74"/>
+    <cellStyle name="标题 4 2" xfId="75"/>
+    <cellStyle name="标题 5" xfId="76"/>
+    <cellStyle name="差 2" xfId="77"/>
+    <cellStyle name="常规 2" xfId="78"/>
+    <cellStyle name="常规 3" xfId="79"/>
+    <cellStyle name="好 2" xfId="80"/>
+    <cellStyle name="汇总 2" xfId="81"/>
+    <cellStyle name="检查单元格 2" xfId="82"/>
+    <cellStyle name="警告文本 2" xfId="83"/>
+    <cellStyle name="链接单元格 2" xfId="84"/>
+    <cellStyle name="输入 2" xfId="85"/>
+    <cellStyle name="着色 3 2" xfId="86"/>
+    <cellStyle name="着色 4 2" xfId="87"/>
+    <cellStyle name="着色 6 2" xfId="88"/>
+    <cellStyle name="注释 2" xfId="89"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,25 +1704,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:68">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1119,17 +1737,17 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1165,9 +1783,9 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -1178,7 +1796,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="75" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1213,7 +1831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="2:3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1221,7 +1839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="2:9">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1230,7 +1848,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1238,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.25" spans="2:3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1246,7 +1864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="2:3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1254,7 +1872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="2:3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1262,7 +1880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" spans="2:3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1270,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1278,7 +1896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1286,7 +1904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1294,7 +1912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1302,7 +1920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1310,7 +1928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1318,7 +1936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1326,7 +1944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1334,7 +1952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1342,7 +1960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1350,7 +1968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1358,7 +1976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1366,7 +1984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1374,7 +1992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -1382,7 +2000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -1390,7 +2008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1398,7 +2016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -1406,7 +2024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -1414,7 +2032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -1422,7 +2040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -1430,7 +2048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -1438,7 +2056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -1446,7 +2064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -1454,7 +2072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -1462,7 +2080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -1470,7 +2088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -1478,7 +2096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -1486,7 +2104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -1494,7 +2112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -1502,7 +2120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -1510,7 +2128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -1518,7 +2136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -1526,7 +2144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -1534,7 +2152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -1542,7 +2160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -1550,7 +2168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -1558,7 +2176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -1566,7 +2184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -1574,7 +2192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -1582,7 +2200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -1590,7 +2208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -1598,7 +2216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -1606,7 +2224,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -1614,7 +2232,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -1622,7 +2240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -1630,7 +2248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -1638,7 +2256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -1646,7 +2264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -1654,121 +2272,145 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="8">
+    <row r="61" spans="2:3">
+      <c r="B61" s="4">
         <v>57</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
+    <row r="62" spans="2:3">
+      <c r="B62" s="4">
         <v>58</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
+    <row r="63" spans="2:3">
+      <c r="B63" s="4">
         <v>59</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="8">
+    <row r="64" spans="2:3">
+      <c r="B64" s="4">
         <v>60</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
+    <row r="65" spans="2:3">
+      <c r="B65" s="4">
         <v>61</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
+    <row r="66" spans="2:3">
+      <c r="B66" s="4">
         <v>62</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
+    <row r="67" spans="2:3">
+      <c r="B67" s="4">
         <v>63</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
+    <row r="68" spans="2:3">
+      <c r="B68" s="4">
         <v>64</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="8">
+    <row r="69" spans="2:3">
+      <c r="B69" s="4">
         <v>65</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
+    <row r="70" spans="2:3">
+      <c r="B70" s="4">
         <v>66</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
+    <row r="71" spans="2:3">
+      <c r="B71" s="4">
         <v>67</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
+    <row r="72" spans="2:3">
+      <c r="B72" s="4">
         <v>68</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
+    <row r="73" spans="2:3">
+      <c r="B73" s="4">
         <v>69</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="8">
+    <row r="74" spans="2:3">
+      <c r="B74" s="4">
         <v>70</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="4" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="13">
+        <v>71</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="13">
+        <v>72</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="13">
+        <v>73</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>required</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>转出到银行卡</t>
+  </si>
+  <si>
+    <t>历史收款人</t>
+  </si>
+  <si>
+    <t>本人</t>
   </si>
 </sst>
 </file>
@@ -261,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -294,14 +300,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +370,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -392,6 +419,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
@@ -400,7 +478,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -418,78 +496,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="42"/>
@@ -499,6 +505,12 @@
     <font>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -511,7 +523,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -522,12 +534,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -544,6 +550,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,7 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,12 +622,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,25 +670,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,211 +808,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,6 +837,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -893,17 +914,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,32 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -960,15 +949,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,6 +977,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1015,8 +1021,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,8 +1030,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,16 +1050,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,250 +1068,250 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,9 +1366,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1398,8 +1404,8 @@
     <cellStyle name="20% - 着色 2 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
@@ -1407,11 +1413,11 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 着色 6 2" xfId="55"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
+    <cellStyle name="60% - 着色 6 2" xfId="56"/>
     <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="着色 5 2" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
+    <cellStyle name="着色 5 2" xfId="59"/>
     <cellStyle name="20% - 着色 3 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="20% - 着色 4 2" xfId="62"/>
@@ -1710,10 +1716,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2385,27 +2391,43 @@
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="13">
+      <c r="B75" s="4">
         <v>71</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="13">
+      <c r="B76" s="4">
         <v>72</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="13">
+      <c r="B77" s="4">
         <v>73</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="4" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="13">
+        <v>74</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="13">
+        <v>75</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F488A8-C3FD-4C16-84AE-7AE68AEBCBAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16785" windowHeight="11745"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>required</t>
   </si>
@@ -260,19 +266,20 @@
   </si>
   <si>
     <t>本人</t>
+  </si>
+  <si>
+    <t>花呗</t>
+  </si>
+  <si>
+    <t>可用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,131 +307,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -432,28 +317,6 @@
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -534,8 +397,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,37 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,49 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,73 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,61 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,110 +514,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1045,414 +630,226 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 6 2" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="40% - 着色 3 2" xfId="24"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="40% - 着色 2 2" xfId="30"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="40% - 着色 5 2" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="适中" xfId="40" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
-    <cellStyle name="输出 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
-    <cellStyle name="60% - 着色 6 2" xfId="56"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
-    <cellStyle name="着色 5 2" xfId="59"/>
-    <cellStyle name="20% - 着色 3 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 着色 4 2" xfId="62"/>
-    <cellStyle name="着色 1 2" xfId="63"/>
-    <cellStyle name="20% - 着色 5 2" xfId="64"/>
-    <cellStyle name="40% - 着色 1 2" xfId="65"/>
-    <cellStyle name="40% - 着色 6 2" xfId="66"/>
-    <cellStyle name="60% - 着色 1 2" xfId="67"/>
-    <cellStyle name="60% - 着色 2 2" xfId="68"/>
-    <cellStyle name="60% - 着色 3 2" xfId="69"/>
-    <cellStyle name="60% - 着色 4 2" xfId="70"/>
-    <cellStyle name="60% - 着色 5 2" xfId="71"/>
-    <cellStyle name="标题 1 2" xfId="72"/>
-    <cellStyle name="标题 2 2" xfId="73"/>
-    <cellStyle name="标题 3 2" xfId="74"/>
-    <cellStyle name="标题 4 2" xfId="75"/>
-    <cellStyle name="标题 5" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="常规 2" xfId="78"/>
-    <cellStyle name="常规 3" xfId="79"/>
-    <cellStyle name="好 2" xfId="80"/>
-    <cellStyle name="汇总 2" xfId="81"/>
-    <cellStyle name="检查单元格 2" xfId="82"/>
-    <cellStyle name="警告文本 2" xfId="83"/>
-    <cellStyle name="链接单元格 2" xfId="84"/>
-    <cellStyle name="输入 2" xfId="85"/>
-    <cellStyle name="着色 3 2" xfId="86"/>
-    <cellStyle name="着色 4 2" xfId="87"/>
-    <cellStyle name="着色 6 2" xfId="88"/>
-    <cellStyle name="注释 2" xfId="89"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="计算 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1710,25 +1107,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BP79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:68">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1802,7 +1199,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="2:3">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:3">
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:3">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:3">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1837,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:3">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1845,7 +1242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:9">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1854,7 +1251,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1862,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:3">
+    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1870,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:3">
+    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1878,7 +1275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:3">
+    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1886,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:3">
+    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1894,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1902,7 +1299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1910,7 +1307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1918,7 +1315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1926,7 +1323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1934,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1942,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1950,7 +1347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1958,7 +1355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1966,7 +1363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1974,7 +1371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1982,7 +1379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1990,7 +1387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1998,7 +1395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -2006,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -2014,7 +1411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -2022,7 +1419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -2030,7 +1427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -2038,7 +1435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -2046,7 +1443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -2054,7 +1451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -2062,7 +1459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -2070,7 +1467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -2078,7 +1475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -2086,7 +1483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -2094,7 +1491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -2102,7 +1499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -2110,7 +1507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -2118,7 +1515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -2126,7 +1523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -2134,7 +1531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -2142,7 +1539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -2150,7 +1547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -2158,7 +1555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -2166,7 +1563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -2174,7 +1571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -2182,7 +1579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -2190,7 +1587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -2198,7 +1595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -2206,7 +1603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -2214,7 +1611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -2222,7 +1619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -2230,7 +1627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -2238,7 +1635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -2246,7 +1643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -2254,7 +1651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -2262,7 +1659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -2270,7 +1667,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -2278,7 +1675,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -2286,7 +1683,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -2294,7 +1691,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -2302,7 +1699,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -2310,7 +1707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -2318,7 +1715,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -2326,7 +1723,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -2334,7 +1731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -2342,7 +1739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>65</v>
       </c>
@@ -2350,7 +1747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>66</v>
       </c>
@@ -2358,7 +1755,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>67</v>
       </c>
@@ -2366,7 +1763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>68</v>
       </c>
@@ -2374,7 +1771,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>69</v>
       </c>
@@ -2382,7 +1779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>70</v>
       </c>
@@ -2390,7 +1787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>71</v>
       </c>
@@ -2398,7 +1795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>72</v>
       </c>
@@ -2406,7 +1803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>73</v>
       </c>
@@ -2414,7 +1811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>74</v>
       </c>
@@ -2422,7 +1819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>75</v>
       </c>
@@ -2430,9 +1827,25 @@
         <v>81</v>
       </c>
     </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="13">
+        <v>76</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="13">
+        <v>77</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F488A8-C3FD-4C16-84AE-7AE68AEBCBAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6B1A7-3AD2-4643-9FB6-61D072D30E08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>required</t>
   </si>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>可用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用额度</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
@@ -1843,6 +1847,14 @@
         <v>83</v>
       </c>
     </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="13">
+        <v>78</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6B1A7-3AD2-4643-9FB6-61D072D30E08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EF98C1-37EB-4B26-8E76-66D2F9FF1BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>required</t>
   </si>
@@ -277,6 +277,12 @@
   <si>
     <t>可用额度</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置个人头像</t>
+  </si>
+  <si>
+    <t>设置背景</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1855,6 +1861,22 @@
         <v>84</v>
       </c>
     </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="13">
+        <v>79</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="13">
+        <v>80</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EF98C1-37EB-4B26-8E76-66D2F9FF1BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C109A9-7147-49AE-A665-2744CF0C879D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>required</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>设置背景</t>
+  </si>
+  <si>
+    <t>借还款</t>
+  </si>
+  <si>
+    <t>花呗还款-{0}年{1}月账单</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1877,6 +1883,22 @@
         <v>86</v>
       </c>
     </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="13">
+        <v>81</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="13">
+        <v>82</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C109A9-7147-49AE-A665-2744CF0C879D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6D16F-27F4-4A30-AC5A-5081B8F2395B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="3192" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>required</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>花呗还款-{0}年{1}月账单</t>
+  </si>
+  <si>
+    <t>{0}月应还</t>
+  </si>
+  <si>
+    <t>{0}月待还</t>
+  </si>
+  <si>
+    <t>最后还款日</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1899,6 +1908,30 @@
         <v>88</v>
       </c>
     </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="13">
+        <v>83</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="13">
+        <v>84</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="13">
+        <v>85</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6D16F-27F4-4A30-AC5A-5081B8F2395B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3192" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20745" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENT" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>required</t>
   </si>
@@ -272,11 +266,9 @@
   </si>
   <si>
     <t>可用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>可用额度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>设置个人头像</t>
@@ -297,14 +289,23 @@
     <t>{0}月待还</t>
   </si>
   <si>
-    <t>最后还款日</t>
+    <t>最后还款日{0}月{1}日</t>
+  </si>
+  <si>
+    <t>本月账单明细共{0}笔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,11 +333,125 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
@@ -344,16 +459,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -403,33 +562,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="19">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,13 +583,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,31 +667,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,53 +859,106 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,8 +980,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +1012,33 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,112 +1077,238 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -750,131 +1317,178 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+  <cellStyles count="90">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="计算 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="20% - 着色 6 2" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="40% - 着色 3 2" xfId="24"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="40% - 着色 2 2" xfId="30"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="33"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="40% - 着色 5 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="好" xfId="39" builtinId="26"/>
+    <cellStyle name="适中" xfId="40" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 着色 2 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="60% - 着色 6 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
+    <cellStyle name="着色 5 2" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="20% - 着色 3 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 着色 4 2" xfId="62"/>
+    <cellStyle name="着色 1 2" xfId="63"/>
+    <cellStyle name="20% - 着色 5 2" xfId="64"/>
+    <cellStyle name="40% - 着色 1 2" xfId="65"/>
+    <cellStyle name="40% - 着色 6 2" xfId="66"/>
+    <cellStyle name="60% - 着色 1 2" xfId="67"/>
+    <cellStyle name="60% - 着色 2 2" xfId="68"/>
+    <cellStyle name="60% - 着色 3 2" xfId="69"/>
+    <cellStyle name="60% - 着色 4 2" xfId="70"/>
+    <cellStyle name="60% - 着色 5 2" xfId="71"/>
+    <cellStyle name="标题 1 2" xfId="72"/>
+    <cellStyle name="标题 2 2" xfId="73"/>
+    <cellStyle name="标题 3 2" xfId="74"/>
+    <cellStyle name="标题 4 2" xfId="75"/>
+    <cellStyle name="标题 5" xfId="76"/>
+    <cellStyle name="差 2" xfId="77"/>
+    <cellStyle name="常规 2" xfId="78"/>
+    <cellStyle name="常规 3" xfId="79"/>
+    <cellStyle name="好 2" xfId="80"/>
+    <cellStyle name="汇总 2" xfId="81"/>
+    <cellStyle name="检查单元格 2" xfId="82"/>
+    <cellStyle name="警告文本 2" xfId="83"/>
+    <cellStyle name="链接单元格 2" xfId="84"/>
+    <cellStyle name="输入 2" xfId="85"/>
+    <cellStyle name="着色 3 2" xfId="86"/>
+    <cellStyle name="着色 4 2" xfId="87"/>
+    <cellStyle name="着色 6 2" xfId="88"/>
+    <cellStyle name="注释 2" xfId="89"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1132,25 +1746,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:68">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1224,7 +1838,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="75" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="14.25" spans="2:3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1259,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.25" spans="2:3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -1267,7 +1881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="2:9">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1276,7 +1890,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1284,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.25" spans="2:3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1292,7 +1906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" spans="2:3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1300,7 +1914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" spans="2:3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1308,7 +1922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" spans="2:3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1316,7 +1930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1324,7 +1938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1332,7 +1946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1340,7 +1954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1348,7 +1962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1356,7 +1970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1364,7 +1978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1372,7 +1986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1380,7 +1994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1388,7 +2002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1396,7 +2010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1404,7 +2018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1412,7 +2026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1420,7 +2034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -1428,7 +2042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -1436,7 +2050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1444,7 +2058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -1452,7 +2066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -1460,7 +2074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -1468,7 +2082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -1476,7 +2090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -1484,7 +2098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -1492,7 +2106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -1500,7 +2114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -1508,7 +2122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -1516,7 +2130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -1524,7 +2138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -1532,7 +2146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -1540,7 +2154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -1548,7 +2162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -1556,7 +2170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -1564,7 +2178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -1572,7 +2186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -1580,7 +2194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -1588,7 +2202,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -1596,7 +2210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -1604,7 +2218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -1612,7 +2226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -1620,7 +2234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -1628,7 +2242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -1636,7 +2250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -1644,7 +2258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -1652,7 +2266,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -1660,7 +2274,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -1668,7 +2282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -1676,7 +2290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -1684,7 +2298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -1692,7 +2306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -1700,7 +2314,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -1708,7 +2322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -1716,7 +2330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -1724,7 +2338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -1732,7 +2346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -1740,7 +2354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -1748,7 +2362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -1756,7 +2370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -1764,7 +2378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69" s="4">
         <v>65</v>
       </c>
@@ -1772,7 +2386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70" s="4">
         <v>66</v>
       </c>
@@ -1780,7 +2394,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71" s="4">
         <v>67</v>
       </c>
@@ -1788,7 +2402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72" s="4">
         <v>68</v>
       </c>
@@ -1796,7 +2410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73" s="4">
         <v>69</v>
       </c>
@@ -1804,7 +2418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3">
       <c r="B74" s="4">
         <v>70</v>
       </c>
@@ -1812,7 +2426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75" s="4">
         <v>71</v>
       </c>
@@ -1820,7 +2434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76" s="4">
         <v>72</v>
       </c>
@@ -1828,7 +2442,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="B77" s="4">
         <v>73</v>
       </c>
@@ -1836,105 +2450,113 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="13">
+    <row r="78" spans="2:3">
+      <c r="B78" s="4">
         <v>74</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="13">
+    <row r="79" spans="2:3">
+      <c r="B79" s="4">
         <v>75</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="13">
+    <row r="80" spans="2:3">
+      <c r="B80" s="4">
         <v>76</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="13">
+    <row r="81" spans="2:3">
+      <c r="B81" s="4">
         <v>77</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="13">
+    <row r="82" spans="2:3">
+      <c r="B82" s="4">
         <v>78</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="13">
+    <row r="83" spans="2:3">
+      <c r="B83" s="4">
         <v>79</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="13">
+    <row r="84" spans="2:3">
+      <c r="B84" s="4">
         <v>80</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="13">
+    <row r="85" spans="2:3">
+      <c r="B85" s="4">
         <v>81</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="13">
+    <row r="86" spans="2:3">
+      <c r="B86" s="4">
         <v>82</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="13">
+    <row r="87" spans="2:3">
+      <c r="B87" s="4">
         <v>83</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="13">
+    <row r="88" spans="2:3">
+      <c r="B88" s="4">
         <v>84</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="13">
+    <row r="89" spans="2:3">
+      <c r="B89" s="4">
         <v>85</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="4" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="13">
+        <v>86</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/content.xlsx
+++ b/DataConfig/Excel/content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>required</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>本月账单明细共{0}笔</t>
+  </si>
+  <si>
+    <t>可还{0}元</t>
   </si>
 </sst>
 </file>
@@ -347,16 +350,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,16 +373,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,22 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -416,14 +406,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,11 +442,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -474,14 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -489,9 +485,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -503,6 +532,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -535,38 +570,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -583,85 +586,229 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,19 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,169 +850,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,48 +1004,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1077,278 +1038,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
       <alignment vertical="center"/>
@@ -1385,9 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1402,9 +1402,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1440,8 +1440,8 @@
     <cellStyle name="20% - 着色 2 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
@@ -1449,11 +1449,11 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 着色 6 2" xfId="55"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
+    <cellStyle name="60% - 着色 6 2" xfId="56"/>
     <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="着色 5 2" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
+    <cellStyle name="着色 5 2" xfId="59"/>
     <cellStyle name="20% - 着色 3 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="20% - 着色 4 2" xfId="62"/>
@@ -1752,10 +1752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2547,11 +2547,19 @@
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="13">
+      <c r="B90" s="4">
         <v>86</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="4" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="13">
+        <v>87</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
